--- a/Data/ROY Data/rookies_15_16.xlsx
+++ b/Data/ROY Data/rookies_15_16.xlsx
@@ -1043,76 +1043,76 @@
         <v>22</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>220</v>
+        <v>55</v>
       </c>
       <c r="H3">
-        <v>2884</v>
+        <v>647</v>
       </c>
       <c r="I3">
-        <v>409</v>
+        <v>71</v>
       </c>
       <c r="J3">
-        <v>981</v>
+        <v>175</v>
       </c>
       <c r="K3">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="L3">
-        <v>462</v>
+        <v>83</v>
       </c>
       <c r="M3">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="N3">
-        <v>259</v>
+        <v>55</v>
       </c>
       <c r="O3">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="P3">
-        <v>559</v>
+        <v>132</v>
       </c>
       <c r="Q3">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="R3">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="S3">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="T3">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="U3">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="V3">
-        <v>1157</v>
+        <v>208</v>
       </c>
       <c r="W3">
-        <v>0.417</v>
+        <v>0.406</v>
       </c>
       <c r="X3">
-        <v>0.299</v>
+        <v>0.265</v>
       </c>
       <c r="Y3">
-        <v>0.776</v>
+        <v>0.8</v>
       </c>
       <c r="Z3">
-        <v>13.1</v>
+        <v>11.8</v>
       </c>
       <c r="AA3">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="AB3">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AC3">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AD3" t="s">
         <v>157</v>
@@ -1135,76 +1135,73 @@
         <v>23</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
       <c r="H4">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="I4">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
         <v>6</v>
       </c>
-      <c r="S4">
-        <v>2</v>
-      </c>
-      <c r="T4">
-        <v>11</v>
-      </c>
-      <c r="U4">
-        <v>15</v>
-      </c>
-      <c r="V4">
-        <v>51</v>
-      </c>
       <c r="W4">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
-      <c r="Y4">
-        <v>0.467</v>
-      </c>
       <c r="Z4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA4">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="s">
         <v>157</v>
@@ -1319,76 +1316,76 @@
         <v>27</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>334</v>
+        <v>60</v>
       </c>
       <c r="H6">
-        <v>7276</v>
+        <v>1075</v>
       </c>
       <c r="I6">
-        <v>1008</v>
+        <v>110</v>
       </c>
       <c r="J6">
-        <v>2167</v>
+        <v>235</v>
       </c>
       <c r="K6">
-        <v>409</v>
+        <v>48</v>
       </c>
       <c r="L6">
-        <v>1040</v>
+        <v>125</v>
       </c>
       <c r="M6">
-        <v>252</v>
+        <v>40</v>
       </c>
       <c r="N6">
-        <v>327</v>
+        <v>55</v>
       </c>
       <c r="O6">
-        <v>391</v>
+        <v>49</v>
       </c>
       <c r="P6">
-        <v>1589</v>
+        <v>210</v>
       </c>
       <c r="Q6">
-        <v>575</v>
+        <v>83</v>
       </c>
       <c r="R6">
-        <v>226</v>
+        <v>26</v>
       </c>
       <c r="S6">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="T6">
-        <v>333</v>
+        <v>47</v>
       </c>
       <c r="U6">
-        <v>845</v>
+        <v>154</v>
       </c>
       <c r="V6">
-        <v>2677</v>
+        <v>308</v>
       </c>
       <c r="W6">
-        <v>0.465</v>
+        <v>0.468</v>
       </c>
       <c r="X6">
-        <v>0.393</v>
+        <v>0.384</v>
       </c>
       <c r="Y6">
-        <v>0.771</v>
+        <v>0.727</v>
       </c>
       <c r="Z6">
-        <v>21.8</v>
+        <v>17.9</v>
       </c>
       <c r="AA6">
-        <v>8</v>
+        <v>5.1</v>
       </c>
       <c r="AB6">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="AC6">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AD6" t="s">
         <v>157</v>
@@ -1411,76 +1408,76 @@
         <v>19</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>335</v>
+        <v>76</v>
       </c>
       <c r="H7">
-        <v>11222</v>
+        <v>2108</v>
       </c>
       <c r="I7">
-        <v>2566</v>
+        <v>367</v>
       </c>
       <c r="J7">
-        <v>5746</v>
+        <v>867</v>
       </c>
       <c r="K7">
-        <v>656</v>
+        <v>99</v>
       </c>
       <c r="L7">
-        <v>1849</v>
+        <v>289</v>
       </c>
       <c r="M7">
-        <v>1678</v>
+        <v>215</v>
       </c>
       <c r="N7">
-        <v>1931</v>
+        <v>256</v>
       </c>
       <c r="O7">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="P7">
-        <v>1208</v>
+        <v>187</v>
       </c>
       <c r="Q7">
-        <v>1566</v>
+        <v>200</v>
       </c>
       <c r="R7">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="S7">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="T7">
-        <v>1108</v>
+        <v>160</v>
       </c>
       <c r="U7">
-        <v>1027</v>
+        <v>225</v>
       </c>
       <c r="V7">
-        <v>7466</v>
+        <v>1048</v>
       </c>
       <c r="W7">
-        <v>0.447</v>
+        <v>0.423</v>
       </c>
       <c r="X7">
-        <v>0.355</v>
+        <v>0.343</v>
       </c>
       <c r="Y7">
-        <v>0.869</v>
+        <v>0.84</v>
       </c>
       <c r="Z7">
-        <v>33.5</v>
+        <v>27.7</v>
       </c>
       <c r="AA7">
-        <v>22.3</v>
+        <v>13.8</v>
       </c>
       <c r="AB7">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="AC7">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="AD7" t="s">
         <v>157</v>
@@ -1503,25 +1500,25 @@
         <v>23</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>762</v>
+        <v>599</v>
       </c>
       <c r="I8">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="J8">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="K8">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L8">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="M8">
         <v>17</v>
@@ -1530,31 +1527,31 @@
         <v>20</v>
       </c>
       <c r="O8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P8">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="Q8">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="R8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="S8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T8">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="U8">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="V8">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="W8">
-        <v>0.328</v>
+        <v>0.31</v>
       </c>
       <c r="X8">
         <v>0.286</v>
@@ -1563,13 +1560,13 @@
         <v>0.85</v>
       </c>
       <c r="Z8">
-        <v>18.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA8">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AB8">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AC8">
         <v>0.7</v>
@@ -1595,76 +1592,76 @@
         <v>22</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>349</v>
+        <v>66</v>
       </c>
       <c r="H9">
-        <v>8187</v>
+        <v>1412</v>
       </c>
       <c r="I9">
-        <v>1421</v>
+        <v>191</v>
       </c>
       <c r="J9">
-        <v>2636</v>
+        <v>339</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="M9">
-        <v>515</v>
+        <v>81</v>
       </c>
       <c r="N9">
-        <v>843</v>
+        <v>125</v>
       </c>
       <c r="O9">
-        <v>615</v>
+        <v>134</v>
       </c>
       <c r="P9">
-        <v>2194</v>
+        <v>352</v>
       </c>
       <c r="Q9">
-        <v>553</v>
+        <v>37</v>
       </c>
       <c r="R9">
-        <v>323</v>
+        <v>48</v>
       </c>
       <c r="S9">
-        <v>289</v>
+        <v>66</v>
       </c>
       <c r="T9">
-        <v>348</v>
+        <v>46</v>
       </c>
       <c r="U9">
-        <v>826</v>
+        <v>146</v>
       </c>
       <c r="V9">
-        <v>3361</v>
+        <v>463</v>
       </c>
       <c r="W9">
-        <v>0.539</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="X9">
-        <v>0.211</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.611</v>
+        <v>0.648</v>
       </c>
       <c r="Z9">
-        <v>23.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA9">
-        <v>9.6</v>
+        <v>7</v>
       </c>
       <c r="AB9">
-        <v>6.3</v>
+        <v>5.3</v>
       </c>
       <c r="AC9">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="AD9" t="s">
         <v>157</v>
@@ -1687,19 +1684,19 @@
         <v>24</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
         <v>2</v>
       </c>
-      <c r="G10">
-        <v>30</v>
-      </c>
-      <c r="H10">
-        <v>225</v>
-      </c>
-      <c r="I10">
-        <v>21</v>
-      </c>
       <c r="J10">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1708,52 +1705,49 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
         <v>4</v>
       </c>
-      <c r="R10">
-        <v>3</v>
-      </c>
-      <c r="S10">
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
         <v>6</v>
       </c>
-      <c r="T10">
-        <v>8</v>
-      </c>
-      <c r="U10">
-        <v>38</v>
-      </c>
-      <c r="V10">
-        <v>63</v>
-      </c>
-      <c r="W10">
-        <v>0.467</v>
-      </c>
-      <c r="Y10">
-        <v>0.724</v>
-      </c>
-      <c r="Z10">
-        <v>7.5</v>
-      </c>
       <c r="AA10">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="AB10">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="s">
         <v>157</v>
@@ -1865,76 +1859,76 @@
         <v>23</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>34</v>
+      </c>
+      <c r="H12">
+        <v>143</v>
+      </c>
+      <c r="I12">
+        <v>13</v>
+      </c>
+      <c r="J12">
+        <v>49</v>
+      </c>
+      <c r="K12">
         <v>5</v>
       </c>
-      <c r="G12">
-        <v>277</v>
-      </c>
-      <c r="H12">
-        <v>4327</v>
-      </c>
-      <c r="I12">
-        <v>497</v>
-      </c>
-      <c r="J12">
-        <v>1122</v>
-      </c>
-      <c r="K12">
-        <v>206</v>
-      </c>
       <c r="L12">
-        <v>601</v>
+        <v>21</v>
       </c>
       <c r="M12">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="N12">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="O12">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="P12">
-        <v>762</v>
+        <v>32</v>
       </c>
       <c r="Q12">
-        <v>346</v>
+        <v>10</v>
       </c>
       <c r="R12">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="U12">
-        <v>290</v>
+        <v>6</v>
       </c>
       <c r="V12">
-        <v>1305</v>
+        <v>36</v>
       </c>
       <c r="W12">
-        <v>0.443</v>
+        <v>0.265</v>
       </c>
       <c r="X12">
-        <v>0.343</v>
+        <v>0.238</v>
       </c>
       <c r="Y12">
-        <v>0.784</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>15.6</v>
+        <v>4.2</v>
       </c>
       <c r="AA12">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="AB12">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="AC12">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD12" t="s">
         <v>157</v>
@@ -2138,76 +2132,67 @@
         <v>21</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>3096</v>
+        <v>6</v>
       </c>
       <c r="I15">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>944</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>607</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>1094</v>
-      </c>
-      <c r="W15">
-        <v>0.478</v>
-      </c>
-      <c r="X15">
-        <v>0.288</v>
-      </c>
-      <c r="Y15">
-        <v>0.606</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>15.5</v>
+        <v>2</v>
       </c>
       <c r="AA15">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="AC15">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="s">
         <v>157</v>
@@ -2319,76 +2304,76 @@
         <v>24</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H17">
-        <v>218</v>
+        <v>147</v>
       </c>
       <c r="I17">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J17">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="K17">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L17">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="M17">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N17">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P17">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="Q17">
         <v>5</v>
       </c>
       <c r="R17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S17">
         <v>1</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V17">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="W17">
-        <v>0.302</v>
+        <v>0.308</v>
       </c>
       <c r="X17">
-        <v>0.292</v>
+        <v>0.319</v>
       </c>
       <c r="Y17">
-        <v>0.9409999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z17">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="AA17">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="AB17">
         <v>0.9</v>
       </c>
       <c r="AC17">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD17" t="s">
         <v>157</v>
@@ -2411,76 +2396,76 @@
         <v>23</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>234</v>
+        <v>31</v>
       </c>
       <c r="H18">
-        <v>3470</v>
+        <v>321</v>
       </c>
       <c r="I18">
-        <v>424</v>
+        <v>40</v>
       </c>
       <c r="J18">
-        <v>741</v>
+        <v>72</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="N18">
-        <v>305</v>
+        <v>35</v>
       </c>
       <c r="O18">
-        <v>371</v>
+        <v>30</v>
       </c>
       <c r="P18">
-        <v>966</v>
+        <v>102</v>
       </c>
       <c r="Q18">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="R18">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="S18">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="T18">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="U18">
-        <v>348</v>
+        <v>31</v>
       </c>
       <c r="V18">
-        <v>1055</v>
+        <v>105</v>
       </c>
       <c r="W18">
-        <v>0.572</v>
+        <v>0.556</v>
       </c>
       <c r="X18">
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>0.679</v>
+        <v>0.714</v>
       </c>
       <c r="Z18">
-        <v>14.8</v>
+        <v>10.4</v>
       </c>
       <c r="AA18">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="AB18">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="AC18">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD18" t="s">
         <v>157</v>
@@ -2503,76 +2488,76 @@
         <v>23</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c r="H19">
-        <v>4928</v>
+        <v>1265</v>
       </c>
       <c r="I19">
-        <v>585</v>
+        <v>154</v>
       </c>
       <c r="J19">
-        <v>1417</v>
+        <v>391</v>
       </c>
       <c r="K19">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="L19">
-        <v>532</v>
+        <v>100</v>
       </c>
       <c r="M19">
-        <v>327</v>
+        <v>96</v>
       </c>
       <c r="N19">
-        <v>424</v>
+        <v>123</v>
       </c>
       <c r="O19">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="P19">
-        <v>525</v>
+        <v>143</v>
       </c>
       <c r="Q19">
-        <v>797</v>
+        <v>177</v>
       </c>
       <c r="R19">
-        <v>204</v>
+        <v>50</v>
       </c>
       <c r="S19">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="T19">
-        <v>271</v>
+        <v>87</v>
       </c>
       <c r="U19">
-        <v>401</v>
+        <v>97</v>
       </c>
       <c r="V19">
-        <v>1670</v>
+        <v>426</v>
       </c>
       <c r="W19">
-        <v>0.413</v>
+        <v>0.394</v>
       </c>
       <c r="X19">
-        <v>0.325</v>
+        <v>0.22</v>
       </c>
       <c r="Y19">
-        <v>0.771</v>
+        <v>0.78</v>
       </c>
       <c r="Z19">
-        <v>18</v>
+        <v>16.6</v>
       </c>
       <c r="AA19">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="AB19">
         <v>1.9</v>
       </c>
       <c r="AC19">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="AD19" t="s">
         <v>157</v>
@@ -2595,76 +2580,76 @@
         <v>22</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>318</v>
+        <v>39</v>
       </c>
       <c r="H20">
-        <v>6643</v>
+        <v>379</v>
       </c>
       <c r="I20">
-        <v>1648</v>
+        <v>58</v>
       </c>
       <c r="J20">
-        <v>2683</v>
+        <v>90</v>
       </c>
       <c r="K20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>736</v>
+        <v>24</v>
       </c>
       <c r="N20">
-        <v>1154</v>
+        <v>46</v>
       </c>
       <c r="O20">
-        <v>556</v>
+        <v>25</v>
       </c>
       <c r="P20">
-        <v>1570</v>
+        <v>65</v>
       </c>
       <c r="Q20">
-        <v>424</v>
+        <v>17</v>
       </c>
       <c r="R20">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="S20">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="T20">
-        <v>369</v>
+        <v>17</v>
       </c>
       <c r="U20">
-        <v>718</v>
+        <v>48</v>
       </c>
       <c r="V20">
-        <v>4037</v>
+        <v>140</v>
       </c>
       <c r="W20">
-        <v>0.614</v>
+        <v>0.644</v>
       </c>
       <c r="X20">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>0.638</v>
+        <v>0.522</v>
       </c>
       <c r="Z20">
-        <v>20.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AA20">
-        <v>12.7</v>
+        <v>3.6</v>
       </c>
       <c r="AB20">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="AC20">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD20" t="s">
         <v>157</v>
@@ -2687,76 +2672,76 @@
         <v>21</v>
       </c>
       <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>21</v>
+      </c>
+      <c r="H21">
+        <v>93</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>19</v>
+      </c>
+      <c r="K21">
         <v>3</v>
       </c>
-      <c r="G21">
-        <v>35</v>
-      </c>
-      <c r="H21">
-        <v>343</v>
-      </c>
-      <c r="I21">
-        <v>24</v>
-      </c>
-      <c r="J21">
-        <v>92</v>
-      </c>
-      <c r="K21">
+      <c r="L21">
+        <v>10</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="N21">
         <v>12</v>
       </c>
-      <c r="L21">
-        <v>55</v>
-      </c>
-      <c r="M21">
-        <v>19</v>
-      </c>
-      <c r="N21">
-        <v>31</v>
-      </c>
       <c r="O21">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P21">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="R21">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U21">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="V21">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="W21">
-        <v>0.261</v>
+        <v>0.263</v>
       </c>
       <c r="X21">
-        <v>0.218</v>
+        <v>0.3</v>
       </c>
       <c r="Y21">
-        <v>0.613</v>
+        <v>0.417</v>
       </c>
       <c r="Z21">
-        <v>9.800000000000001</v>
+        <v>4.4</v>
       </c>
       <c r="AA21">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="AB21">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="AC21">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AD21" t="s">
         <v>157</v>
@@ -2779,76 +2764,76 @@
         <v>20</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="H22">
-        <v>6026</v>
+        <v>1413</v>
       </c>
       <c r="I22">
-        <v>845</v>
+        <v>181</v>
       </c>
       <c r="J22">
-        <v>2023</v>
+        <v>418</v>
       </c>
       <c r="K22">
-        <v>264</v>
+        <v>67</v>
       </c>
       <c r="L22">
-        <v>821</v>
+        <v>192</v>
       </c>
       <c r="M22">
-        <v>307</v>
+        <v>49</v>
       </c>
       <c r="N22">
-        <v>378</v>
+        <v>54</v>
       </c>
       <c r="O22">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="P22">
-        <v>1008</v>
+        <v>176</v>
       </c>
       <c r="Q22">
-        <v>409</v>
+        <v>109</v>
       </c>
       <c r="R22">
-        <v>238</v>
+        <v>39</v>
       </c>
       <c r="S22">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="T22">
-        <v>368</v>
+        <v>97</v>
       </c>
       <c r="U22">
-        <v>538</v>
+        <v>124</v>
       </c>
       <c r="V22">
-        <v>2261</v>
+        <v>478</v>
       </c>
       <c r="W22">
-        <v>0.418</v>
+        <v>0.433</v>
       </c>
       <c r="X22">
-        <v>0.322</v>
+        <v>0.349</v>
       </c>
       <c r="Y22">
-        <v>0.8120000000000001</v>
+        <v>0.907</v>
       </c>
       <c r="Z22">
-        <v>18.5</v>
+        <v>17.9</v>
       </c>
       <c r="AA22">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="AB22">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="AC22">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AD22" t="s">
         <v>157</v>
@@ -2871,76 +2856,76 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="H23">
-        <v>859</v>
+        <v>383</v>
       </c>
       <c r="I23">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="J23">
-        <v>276</v>
+        <v>131</v>
       </c>
       <c r="K23">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="L23">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="M23">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="N23">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="O23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P23">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Q23">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="R23">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="S23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T23">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="U23">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="V23">
-        <v>295</v>
+        <v>152</v>
       </c>
       <c r="W23">
-        <v>0.377</v>
+        <v>0.397</v>
       </c>
       <c r="X23">
-        <v>0.304</v>
+        <v>0.38</v>
       </c>
       <c r="Y23">
-        <v>0.747</v>
+        <v>0.725</v>
       </c>
       <c r="Z23">
-        <v>9.4</v>
+        <v>10.1</v>
       </c>
       <c r="AA23">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="AB23">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AC23">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AD23" t="s">
         <v>157</v>
@@ -2963,76 +2948,76 @@
         <v>21</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>286</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>6528</v>
+        <v>615</v>
       </c>
       <c r="I24">
-        <v>979</v>
+        <v>63</v>
       </c>
       <c r="J24">
-        <v>2186</v>
+        <v>138</v>
       </c>
       <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>14</v>
+      </c>
+      <c r="M24">
+        <v>37</v>
+      </c>
+      <c r="N24">
+        <v>52</v>
+      </c>
+      <c r="O24">
+        <v>39</v>
+      </c>
+      <c r="P24">
+        <v>154</v>
+      </c>
+      <c r="Q24">
         <v>43</v>
       </c>
-      <c r="L24">
-        <v>201</v>
-      </c>
-      <c r="M24">
-        <v>689</v>
-      </c>
-      <c r="N24">
-        <v>933</v>
-      </c>
-      <c r="O24">
-        <v>421</v>
-      </c>
-      <c r="P24">
-        <v>1629</v>
-      </c>
-      <c r="Q24">
-        <v>550</v>
-      </c>
       <c r="R24">
-        <v>274</v>
+        <v>39</v>
       </c>
       <c r="S24">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="T24">
-        <v>380</v>
+        <v>26</v>
       </c>
       <c r="U24">
-        <v>595</v>
+        <v>61</v>
       </c>
       <c r="V24">
-        <v>2690</v>
+        <v>167</v>
       </c>
       <c r="W24">
-        <v>0.448</v>
+        <v>0.457</v>
       </c>
       <c r="X24">
-        <v>0.214</v>
+        <v>0.286</v>
       </c>
       <c r="Y24">
-        <v>0.738</v>
+        <v>0.712</v>
       </c>
       <c r="Z24">
-        <v>22.8</v>
+        <v>21.2</v>
       </c>
       <c r="AA24">
-        <v>9.4</v>
+        <v>5.8</v>
       </c>
       <c r="AB24">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="AC24">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="AD24" t="s">
         <v>157</v>
@@ -3055,76 +3040,76 @@
         <v>22</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>266</v>
+        <v>51</v>
       </c>
       <c r="H25">
-        <v>4974</v>
+        <v>702</v>
       </c>
       <c r="I25">
-        <v>914</v>
+        <v>114</v>
       </c>
       <c r="J25">
-        <v>1566</v>
+        <v>222</v>
       </c>
       <c r="K25">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="L25">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="M25">
-        <v>372</v>
+        <v>51</v>
       </c>
       <c r="N25">
-        <v>512</v>
+        <v>74</v>
       </c>
       <c r="O25">
-        <v>448</v>
+        <v>62</v>
       </c>
       <c r="P25">
-        <v>1319</v>
+        <v>135</v>
       </c>
       <c r="Q25">
-        <v>252</v>
+        <v>33</v>
       </c>
       <c r="R25">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="S25">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c r="T25">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="U25">
-        <v>677</v>
+        <v>92</v>
       </c>
       <c r="V25">
-        <v>2239</v>
+        <v>287</v>
       </c>
       <c r="W25">
-        <v>0.584</v>
+        <v>0.514</v>
       </c>
       <c r="X25">
-        <v>0.257</v>
+        <v>0.182</v>
       </c>
       <c r="Y25">
-        <v>0.727</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="Z25">
-        <v>18.7</v>
+        <v>13.8</v>
       </c>
       <c r="AA25">
-        <v>8.4</v>
+        <v>5.6</v>
       </c>
       <c r="AB25">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="AC25">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AD25" t="s">
         <v>157</v>
@@ -3147,76 +3132,76 @@
         <v>32</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26">
+        <v>53</v>
+      </c>
+      <c r="H26">
+        <v>869</v>
+      </c>
+      <c r="I26">
+        <v>97</v>
+      </c>
+      <c r="J26">
+        <v>230</v>
+      </c>
+      <c r="K26">
+        <v>16</v>
+      </c>
+      <c r="L26">
+        <v>61</v>
+      </c>
+      <c r="M26">
+        <v>27</v>
+      </c>
+      <c r="N26">
+        <v>29</v>
+      </c>
+      <c r="O26">
+        <v>18</v>
+      </c>
+      <c r="P26">
+        <v>90</v>
+      </c>
+      <c r="Q26">
+        <v>182</v>
+      </c>
+      <c r="R26">
+        <v>26</v>
+      </c>
+      <c r="S26">
+        <v>7</v>
+      </c>
+      <c r="T26">
+        <v>80</v>
+      </c>
+      <c r="U26">
         <v>76</v>
       </c>
-      <c r="H26">
-        <v>1106</v>
-      </c>
-      <c r="I26">
-        <v>122</v>
-      </c>
-      <c r="J26">
-        <v>298</v>
-      </c>
-      <c r="K26">
-        <v>20</v>
-      </c>
-      <c r="L26">
-        <v>80</v>
-      </c>
-      <c r="M26">
-        <v>36</v>
-      </c>
-      <c r="N26">
-        <v>46</v>
-      </c>
-      <c r="O26">
-        <v>20</v>
-      </c>
-      <c r="P26">
-        <v>114</v>
-      </c>
-      <c r="Q26">
-        <v>234</v>
-      </c>
-      <c r="R26">
-        <v>36</v>
-      </c>
-      <c r="S26">
-        <v>9</v>
-      </c>
-      <c r="T26">
-        <v>99</v>
-      </c>
-      <c r="U26">
-        <v>92</v>
-      </c>
       <c r="V26">
-        <v>300</v>
+        <v>237</v>
       </c>
       <c r="W26">
-        <v>0.409</v>
+        <v>0.422</v>
       </c>
       <c r="X26">
-        <v>0.25</v>
+        <v>0.262</v>
       </c>
       <c r="Y26">
-        <v>0.783</v>
+        <v>0.931</v>
       </c>
       <c r="Z26">
-        <v>14.6</v>
+        <v>16.4</v>
       </c>
       <c r="AA26">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="AB26">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AC26">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AD26" t="s">
         <v>157</v>
@@ -3239,76 +3224,76 @@
         <v>24</v>
       </c>
       <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>55</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>12</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <v>6</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <v>10</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="T27">
         <v>3</v>
       </c>
-      <c r="G27">
-        <v>76</v>
-      </c>
-      <c r="H27">
-        <v>1068</v>
-      </c>
-      <c r="I27">
-        <v>71</v>
-      </c>
-      <c r="J27">
-        <v>205</v>
-      </c>
-      <c r="K27">
-        <v>39</v>
-      </c>
-      <c r="L27">
-        <v>125</v>
-      </c>
-      <c r="M27">
-        <v>6</v>
-      </c>
-      <c r="N27">
-        <v>25</v>
-      </c>
-      <c r="O27">
-        <v>48</v>
-      </c>
-      <c r="P27">
-        <v>180</v>
-      </c>
-      <c r="Q27">
-        <v>23</v>
-      </c>
-      <c r="R27">
-        <v>16</v>
-      </c>
-      <c r="S27">
-        <v>48</v>
-      </c>
-      <c r="T27">
-        <v>29</v>
-      </c>
       <c r="U27">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="V27">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="W27">
-        <v>0.346</v>
+        <v>0.417</v>
       </c>
       <c r="X27">
-        <v>0.312</v>
+        <v>0.667</v>
       </c>
       <c r="Y27">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>14.1</v>
+        <v>11</v>
       </c>
       <c r="AA27">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AB27">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AC27">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AD27" t="s">
         <v>157</v>
@@ -3331,70 +3316,70 @@
         <v>22</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H28">
-        <v>395</v>
+        <v>315</v>
       </c>
       <c r="I28">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="J28">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="K28">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L28">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="M28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N28">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P28">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="R28">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S28">
         <v>4</v>
       </c>
       <c r="T28">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U28">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="V28">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="W28">
-        <v>0.371</v>
+        <v>0.367</v>
       </c>
       <c r="X28">
-        <v>0.295</v>
+        <v>0.302</v>
       </c>
       <c r="Y28">
-        <v>0.8179999999999999</v>
+        <v>0.857</v>
       </c>
       <c r="Z28">
         <v>8.800000000000001</v>
       </c>
       <c r="AA28">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AB28">
         <v>1</v>
@@ -3515,76 +3500,76 @@
         <v>19</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>305</v>
+        <v>73</v>
       </c>
       <c r="H30">
-        <v>6256</v>
+        <v>1687</v>
       </c>
       <c r="I30">
-        <v>743</v>
+        <v>225</v>
       </c>
       <c r="J30">
-        <v>1996</v>
+        <v>600</v>
       </c>
       <c r="K30">
-        <v>239</v>
+        <v>63</v>
       </c>
       <c r="L30">
-        <v>821</v>
+        <v>205</v>
       </c>
       <c r="M30">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="N30">
-        <v>370</v>
+        <v>102</v>
       </c>
       <c r="O30">
-        <v>164</v>
+        <v>58</v>
       </c>
       <c r="P30">
-        <v>986</v>
+        <v>306</v>
       </c>
       <c r="Q30">
-        <v>431</v>
+        <v>118</v>
       </c>
       <c r="R30">
-        <v>270</v>
+        <v>55</v>
       </c>
       <c r="S30">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="T30">
-        <v>351</v>
+        <v>114</v>
       </c>
       <c r="U30">
-        <v>592</v>
+        <v>178</v>
       </c>
       <c r="V30">
-        <v>2008</v>
+        <v>593</v>
       </c>
       <c r="W30">
-        <v>0.372</v>
+        <v>0.375</v>
       </c>
       <c r="X30">
-        <v>0.291</v>
+        <v>0.307</v>
       </c>
       <c r="Y30">
-        <v>0.765</v>
+        <v>0.784</v>
       </c>
       <c r="Z30">
-        <v>20.5</v>
+        <v>23.1</v>
       </c>
       <c r="AA30">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="AB30">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="AC30">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AD30" t="s">
         <v>157</v>
@@ -3607,76 +3592,76 @@
         <v>20</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="H31">
-        <v>10819</v>
+        <v>1733</v>
       </c>
       <c r="I31">
-        <v>2433</v>
+        <v>307</v>
       </c>
       <c r="J31">
-        <v>4639</v>
+        <v>600</v>
       </c>
       <c r="K31">
-        <v>338</v>
+        <v>28</v>
       </c>
       <c r="L31">
-        <v>999</v>
+        <v>84</v>
       </c>
       <c r="M31">
-        <v>1115</v>
+        <v>154</v>
       </c>
       <c r="N31">
-        <v>1351</v>
+        <v>190</v>
       </c>
       <c r="O31">
-        <v>971</v>
+        <v>181</v>
       </c>
       <c r="P31">
-        <v>3609</v>
+        <v>560</v>
       </c>
       <c r="Q31">
-        <v>2032</v>
+        <v>189</v>
       </c>
       <c r="R31">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="S31">
-        <v>264</v>
+        <v>50</v>
       </c>
       <c r="T31">
-        <v>935</v>
+        <v>104</v>
       </c>
       <c r="U31">
-        <v>1062</v>
+        <v>208</v>
       </c>
       <c r="V31">
-        <v>6319</v>
+        <v>796</v>
       </c>
       <c r="W31">
-        <v>0.524</v>
+        <v>0.512</v>
       </c>
       <c r="X31">
-        <v>0.338</v>
+        <v>0.333</v>
       </c>
       <c r="Y31">
-        <v>0.825</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="Z31">
-        <v>29</v>
+        <v>21.7</v>
       </c>
       <c r="AA31">
-        <v>16.9</v>
+        <v>10</v>
       </c>
       <c r="AB31">
-        <v>9.699999999999999</v>
+        <v>7</v>
       </c>
       <c r="AC31">
-        <v>5.4</v>
+        <v>2.4</v>
       </c>
       <c r="AD31" t="s">
         <v>157</v>
@@ -3699,76 +3684,76 @@
         <v>19</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>312</v>
+        <v>37</v>
       </c>
       <c r="H32">
-        <v>5606</v>
+        <v>573</v>
       </c>
       <c r="I32">
-        <v>663</v>
+        <v>56</v>
       </c>
       <c r="J32">
-        <v>1540</v>
+        <v>156</v>
       </c>
       <c r="K32">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="L32">
-        <v>505</v>
+        <v>53</v>
       </c>
       <c r="M32">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="N32">
-        <v>290</v>
+        <v>39</v>
       </c>
       <c r="O32">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="P32">
-        <v>483</v>
+        <v>47</v>
       </c>
       <c r="Q32">
-        <v>1108</v>
+        <v>108</v>
       </c>
       <c r="R32">
-        <v>314</v>
+        <v>31</v>
       </c>
       <c r="S32">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="T32">
-        <v>232</v>
+        <v>33</v>
       </c>
       <c r="U32">
-        <v>315</v>
+        <v>33</v>
       </c>
       <c r="V32">
-        <v>1733</v>
+        <v>156</v>
       </c>
       <c r="W32">
-        <v>0.431</v>
+        <v>0.359</v>
       </c>
       <c r="X32">
-        <v>0.345</v>
+        <v>0.302</v>
       </c>
       <c r="Y32">
-        <v>0.803</v>
+        <v>0.718</v>
       </c>
       <c r="Z32">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AA32">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="AB32">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AC32">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="AD32" t="s">
         <v>157</v>
@@ -3791,76 +3776,76 @@
         <v>22</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="H33">
-        <v>6980</v>
+        <v>1708</v>
       </c>
       <c r="I33">
-        <v>1108</v>
+        <v>215</v>
       </c>
       <c r="J33">
-        <v>2624</v>
+        <v>525</v>
       </c>
       <c r="K33">
-        <v>377</v>
+        <v>68</v>
       </c>
       <c r="L33">
-        <v>1083</v>
+        <v>202</v>
       </c>
       <c r="M33">
-        <v>519</v>
+        <v>108</v>
       </c>
       <c r="N33">
-        <v>693</v>
+        <v>148</v>
       </c>
       <c r="O33">
-        <v>241</v>
+        <v>69</v>
       </c>
       <c r="P33">
-        <v>1282</v>
+        <v>335</v>
       </c>
       <c r="Q33">
-        <v>525</v>
+        <v>98</v>
       </c>
       <c r="R33">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="S33">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="T33">
-        <v>275</v>
+        <v>58</v>
       </c>
       <c r="U33">
-        <v>499</v>
+        <v>126</v>
       </c>
       <c r="V33">
-        <v>3112</v>
+        <v>606</v>
       </c>
       <c r="W33">
-        <v>0.422</v>
+        <v>0.41</v>
       </c>
       <c r="X33">
-        <v>0.348</v>
+        <v>0.337</v>
       </c>
       <c r="Y33">
-        <v>0.749</v>
+        <v>0.73</v>
       </c>
       <c r="Z33">
-        <v>22.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA33">
-        <v>9.9</v>
+        <v>7.5</v>
       </c>
       <c r="AB33">
         <v>4.1</v>
       </c>
       <c r="AC33">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="AD33" t="s">
         <v>157</v>
@@ -3972,76 +3957,73 @@
         <v>19</v>
       </c>
       <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
         <v>5</v>
       </c>
-      <c r="G35">
-        <v>224</v>
-      </c>
       <c r="H35">
-        <v>3121</v>
+        <v>21</v>
       </c>
       <c r="I35">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="J35">
-        <v>733</v>
+        <v>7</v>
       </c>
       <c r="K35">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="M35">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="O35">
-        <v>353</v>
+        <v>4</v>
       </c>
       <c r="P35">
-        <v>832</v>
+        <v>10</v>
       </c>
       <c r="Q35">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="S35">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="U35">
-        <v>417</v>
+        <v>2</v>
       </c>
       <c r="V35">
-        <v>979</v>
+        <v>9</v>
       </c>
       <c r="W35">
-        <v>0.57</v>
+        <v>0.571</v>
       </c>
       <c r="X35">
-        <v>0.15</v>
-      </c>
-      <c r="Y35">
-        <v>0.601</v>
+        <v>0.5</v>
       </c>
       <c r="Z35">
-        <v>13.9</v>
+        <v>4.2</v>
       </c>
       <c r="AA35">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="AB35">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="AC35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD35" t="s">
         <v>157</v>
@@ -4064,76 +4046,76 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="H36">
-        <v>6322</v>
+        <v>1382</v>
       </c>
       <c r="I36">
-        <v>980</v>
+        <v>191</v>
       </c>
       <c r="J36">
-        <v>2263</v>
+        <v>436</v>
       </c>
       <c r="K36">
-        <v>313</v>
+        <v>49</v>
       </c>
       <c r="L36">
-        <v>918</v>
+        <v>128</v>
       </c>
       <c r="M36">
-        <v>329</v>
+        <v>57</v>
       </c>
       <c r="N36">
-        <v>465</v>
+        <v>82</v>
       </c>
       <c r="O36">
-        <v>277</v>
+        <v>59</v>
       </c>
       <c r="P36">
-        <v>1488</v>
+        <v>299</v>
       </c>
       <c r="Q36">
-        <v>375</v>
+        <v>59</v>
       </c>
       <c r="R36">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="S36">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="T36">
-        <v>297</v>
+        <v>65</v>
       </c>
       <c r="U36">
-        <v>513</v>
+        <v>114</v>
       </c>
       <c r="V36">
-        <v>2602</v>
+        <v>488</v>
       </c>
       <c r="W36">
-        <v>0.433</v>
+        <v>0.438</v>
       </c>
       <c r="X36">
-        <v>0.341</v>
+        <v>0.383</v>
       </c>
       <c r="Y36">
-        <v>0.708</v>
+        <v>0.695</v>
       </c>
       <c r="Z36">
-        <v>18</v>
+        <v>17.3</v>
       </c>
       <c r="AA36">
-        <v>7.4</v>
+        <v>6.1</v>
       </c>
       <c r="AB36">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="AC36">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="AD36" t="s">
         <v>157</v>
@@ -4156,76 +4138,73 @@
         <v>27</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>224</v>
+        <v>54</v>
       </c>
       <c r="H37">
-        <v>2161</v>
+        <v>508</v>
       </c>
       <c r="I37">
-        <v>515</v>
+        <v>105</v>
       </c>
       <c r="J37">
-        <v>890</v>
+        <v>174</v>
       </c>
       <c r="K37">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>345</v>
+        <v>87</v>
       </c>
       <c r="N37">
-        <v>448</v>
+        <v>114</v>
       </c>
       <c r="O37">
-        <v>310</v>
+        <v>73</v>
       </c>
       <c r="P37">
-        <v>891</v>
+        <v>194</v>
       </c>
       <c r="Q37">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="R37">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="S37">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="T37">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="U37">
-        <v>268</v>
+        <v>54</v>
       </c>
       <c r="V37">
-        <v>1383</v>
+        <v>297</v>
       </c>
       <c r="W37">
-        <v>0.579</v>
-      </c>
-      <c r="X37">
-        <v>0.32</v>
+        <v>0.603</v>
       </c>
       <c r="Y37">
-        <v>0.77</v>
+        <v>0.763</v>
       </c>
       <c r="Z37">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AA37">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="AB37">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AC37">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AD37" t="s">
         <v>157</v>
@@ -4248,73 +4227,73 @@
         <v>21</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="H38">
-        <v>2927</v>
+        <v>380</v>
       </c>
       <c r="I38">
-        <v>376</v>
+        <v>54</v>
       </c>
       <c r="J38">
-        <v>867</v>
+        <v>116</v>
       </c>
       <c r="K38">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>182</v>
+        <v>2</v>
       </c>
       <c r="M38">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="N38">
-        <v>239</v>
+        <v>62</v>
       </c>
       <c r="O38">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="P38">
-        <v>639</v>
+        <v>86</v>
       </c>
       <c r="Q38">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="R38">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="S38">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="T38">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="U38">
-        <v>411</v>
+        <v>58</v>
       </c>
       <c r="V38">
-        <v>998</v>
+        <v>153</v>
       </c>
       <c r="W38">
-        <v>0.434</v>
+        <v>0.466</v>
       </c>
       <c r="X38">
-        <v>0.346</v>
+        <v>0</v>
       </c>
       <c r="Y38">
-        <v>0.766</v>
+        <v>0.726</v>
       </c>
       <c r="Z38">
-        <v>15.9</v>
+        <v>14.1</v>
       </c>
       <c r="AA38">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="AB38">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="AC38">
         <v>0.6</v>
@@ -4340,76 +4319,76 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>377</v>
+        <v>81</v>
       </c>
       <c r="H39">
-        <v>8103</v>
+        <v>1606</v>
       </c>
       <c r="I39">
-        <v>1071</v>
+        <v>218</v>
       </c>
       <c r="J39">
-        <v>2178</v>
+        <v>464</v>
       </c>
       <c r="K39">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="L39">
-        <v>263</v>
+        <v>89</v>
       </c>
       <c r="M39">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="N39">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="O39">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="P39">
-        <v>1064</v>
+        <v>250</v>
       </c>
       <c r="Q39">
-        <v>1778</v>
+        <v>367</v>
       </c>
       <c r="R39">
-        <v>444</v>
+        <v>95</v>
       </c>
       <c r="S39">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="T39">
-        <v>588</v>
+        <v>140</v>
       </c>
       <c r="U39">
-        <v>549</v>
+        <v>114</v>
       </c>
       <c r="V39">
-        <v>2419</v>
+        <v>493</v>
       </c>
       <c r="W39">
-        <v>0.492</v>
+        <v>0.47</v>
       </c>
       <c r="X39">
-        <v>0.335</v>
+        <v>0.348</v>
       </c>
       <c r="Y39">
-        <v>0.778</v>
+        <v>0.634</v>
       </c>
       <c r="Z39">
-        <v>21.5</v>
+        <v>19.8</v>
       </c>
       <c r="AA39">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AB39">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AC39">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="AD39" t="s">
         <v>157</v>
@@ -4432,76 +4411,76 @@
         <v>20</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="H40">
-        <v>532</v>
+        <v>362</v>
       </c>
       <c r="I40">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="J40">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="K40">
+        <v>13</v>
+      </c>
+      <c r="L40">
+        <v>34</v>
+      </c>
+      <c r="M40">
+        <v>11</v>
+      </c>
+      <c r="N40">
+        <v>23</v>
+      </c>
+      <c r="O40">
+        <v>25</v>
+      </c>
+      <c r="P40">
+        <v>68</v>
+      </c>
+      <c r="Q40">
+        <v>9</v>
+      </c>
+      <c r="R40">
+        <v>28</v>
+      </c>
+      <c r="S40">
+        <v>12</v>
+      </c>
+      <c r="T40">
         <v>15</v>
       </c>
-      <c r="L40">
-        <v>49</v>
-      </c>
-      <c r="M40">
-        <v>23</v>
-      </c>
-      <c r="N40">
-        <v>42</v>
-      </c>
-      <c r="O40">
-        <v>41</v>
-      </c>
-      <c r="P40">
+      <c r="U40">
+        <v>39</v>
+      </c>
+      <c r="V40">
         <v>112</v>
       </c>
-      <c r="Q40">
-        <v>15</v>
-      </c>
-      <c r="R40">
-        <v>30</v>
-      </c>
-      <c r="S40">
-        <v>19</v>
-      </c>
-      <c r="T40">
-        <v>20</v>
-      </c>
-      <c r="U40">
-        <v>54</v>
-      </c>
-      <c r="V40">
-        <v>194</v>
-      </c>
       <c r="W40">
-        <v>0.426</v>
+        <v>0.404</v>
       </c>
       <c r="X40">
-        <v>0.306</v>
+        <v>0.382</v>
       </c>
       <c r="Y40">
-        <v>0.548</v>
+        <v>0.478</v>
       </c>
       <c r="Z40">
-        <v>9</v>
+        <v>15.1</v>
       </c>
       <c r="AA40">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="AB40">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="AC40">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD40" t="s">
         <v>157</v>
@@ -4524,76 +4503,76 @@
         <v>24</v>
       </c>
       <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>22</v>
+      </c>
+      <c r="H41">
+        <v>195</v>
+      </c>
+      <c r="I41">
+        <v>34</v>
+      </c>
+      <c r="J41">
+        <v>78</v>
+      </c>
+      <c r="K41">
+        <v>10</v>
+      </c>
+      <c r="L41">
+        <v>22</v>
+      </c>
+      <c r="M41">
+        <v>21</v>
+      </c>
+      <c r="N41">
+        <v>28</v>
+      </c>
+      <c r="O41">
         <v>4</v>
       </c>
-      <c r="G41">
-        <v>123</v>
-      </c>
-      <c r="H41">
-        <v>1696</v>
-      </c>
-      <c r="I41">
-        <v>302</v>
-      </c>
-      <c r="J41">
-        <v>724</v>
-      </c>
-      <c r="K41">
-        <v>83</v>
-      </c>
-      <c r="L41">
-        <v>234</v>
-      </c>
-      <c r="M41">
-        <v>159</v>
-      </c>
-      <c r="N41">
-        <v>206</v>
-      </c>
-      <c r="O41">
-        <v>34</v>
-      </c>
       <c r="P41">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="Q41">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="R41">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="S41">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="T41">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="U41">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="V41">
-        <v>846</v>
+        <v>99</v>
       </c>
       <c r="W41">
-        <v>0.417</v>
+        <v>0.436</v>
       </c>
       <c r="X41">
-        <v>0.355</v>
+        <v>0.455</v>
       </c>
       <c r="Y41">
-        <v>0.772</v>
+        <v>0.75</v>
       </c>
       <c r="Z41">
-        <v>13.8</v>
+        <v>8.9</v>
       </c>
       <c r="AA41">
-        <v>6.9</v>
+        <v>4.5</v>
       </c>
       <c r="AB41">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="AC41">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AD41" t="s">
         <v>157</v>
@@ -4616,76 +4595,76 @@
         <v>29</v>
       </c>
       <c r="F42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>204</v>
+        <v>34</v>
       </c>
       <c r="H42">
-        <v>2430</v>
+        <v>397</v>
       </c>
       <c r="I42">
-        <v>280</v>
+        <v>49</v>
       </c>
       <c r="J42">
-        <v>464</v>
+        <v>78</v>
       </c>
       <c r="K42">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>27</v>
+      </c>
+      <c r="N42">
+        <v>46</v>
+      </c>
+      <c r="O42">
         <v>41</v>
       </c>
-      <c r="M42">
-        <v>121</v>
-      </c>
-      <c r="N42">
-        <v>205</v>
-      </c>
-      <c r="O42">
-        <v>259</v>
-      </c>
       <c r="P42">
-        <v>808</v>
+        <v>123</v>
       </c>
       <c r="Q42">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="R42">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="S42">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="T42">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="U42">
-        <v>382</v>
+        <v>54</v>
       </c>
       <c r="V42">
-        <v>693</v>
+        <v>125</v>
       </c>
       <c r="W42">
-        <v>0.603</v>
+        <v>0.628</v>
       </c>
       <c r="X42">
-        <v>0.293</v>
+        <v>0</v>
       </c>
       <c r="Y42">
-        <v>0.59</v>
+        <v>0.587</v>
       </c>
       <c r="Z42">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="AA42">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="AB42">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AC42">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD42" t="s">
         <v>157</v>
@@ -4708,76 +4687,73 @@
         <v>21</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="H43">
-        <v>482</v>
+        <v>57</v>
       </c>
       <c r="I43">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="J43">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="N43">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="O43">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="P43">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="Q43">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="R43">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S43">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="T43">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="U43">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="V43">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="W43">
-        <v>0.449</v>
-      </c>
-      <c r="X43">
-        <v>0.118</v>
+        <v>0.364</v>
       </c>
       <c r="Y43">
-        <v>0.605</v>
+        <v>0.5</v>
       </c>
       <c r="Z43">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="AA43">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="AB43">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="AC43">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AD43" t="s">
         <v>157</v>
@@ -4800,19 +4776,19 @@
         <v>22</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H44">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I44">
         <v>5</v>
       </c>
       <c r="J44">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -4830,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q44">
         <v>1</v>
@@ -4842,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U44">
         <v>1</v>
@@ -4851,7 +4827,7 @@
         <v>14</v>
       </c>
       <c r="W44">
-        <v>0.25</v>
+        <v>0.263</v>
       </c>
       <c r="X44">
         <v>0.111</v>
@@ -4860,13 +4836,13 @@
         <v>0.75</v>
       </c>
       <c r="Z44">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AA44">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AB44">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AC44">
         <v>0.1</v>
@@ -4892,76 +4868,76 @@
         <v>19</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>295</v>
+        <v>68</v>
       </c>
       <c r="H45">
-        <v>7088</v>
+        <v>2068</v>
       </c>
       <c r="I45">
-        <v>1207</v>
+        <v>329</v>
       </c>
       <c r="J45">
-        <v>3013</v>
+        <v>905</v>
       </c>
       <c r="K45">
-        <v>273</v>
+        <v>74</v>
       </c>
       <c r="L45">
-        <v>846</v>
+        <v>232</v>
       </c>
       <c r="M45">
-        <v>565</v>
+        <v>140</v>
       </c>
       <c r="N45">
-        <v>760</v>
+        <v>209</v>
       </c>
       <c r="O45">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="P45">
-        <v>874</v>
+        <v>232</v>
       </c>
       <c r="Q45">
-        <v>1130</v>
+        <v>372</v>
       </c>
       <c r="R45">
-        <v>209</v>
+        <v>65</v>
       </c>
       <c r="S45">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="T45">
-        <v>659</v>
+        <v>217</v>
       </c>
       <c r="U45">
-        <v>485</v>
+        <v>141</v>
       </c>
       <c r="V45">
-        <v>3252</v>
+        <v>872</v>
       </c>
       <c r="W45">
-        <v>0.401</v>
+        <v>0.364</v>
       </c>
       <c r="X45">
-        <v>0.323</v>
+        <v>0.319</v>
       </c>
       <c r="Y45">
-        <v>0.743</v>
+        <v>0.67</v>
       </c>
       <c r="Z45">
-        <v>24</v>
+        <v>30.4</v>
       </c>
       <c r="AA45">
-        <v>11</v>
+        <v>12.8</v>
       </c>
       <c r="AB45">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AC45">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="AD45" t="s">
         <v>157</v>
@@ -4984,76 +4960,76 @@
         <v>23</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H46">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="I46">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J46">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K46">
         <v>9</v>
       </c>
       <c r="L46">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N46">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P46">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q46">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="R46">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S46">
         <v>3</v>
       </c>
       <c r="T46">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U46">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="V46">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="W46">
-        <v>0.398</v>
+        <v>0.416</v>
       </c>
       <c r="X46">
-        <v>0.36</v>
+        <v>0.391</v>
       </c>
       <c r="Y46">
         <v>0.5</v>
       </c>
       <c r="Z46">
-        <v>13.3</v>
+        <v>17.4</v>
       </c>
       <c r="AA46">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="AB46">
+        <v>2.2</v>
+      </c>
+      <c r="AC46">
         <v>1.6</v>
-      </c>
-      <c r="AC46">
-        <v>1.3</v>
       </c>
       <c r="AD46" t="s">
         <v>157</v>
@@ -5076,76 +5052,76 @@
         <v>23</v>
       </c>
       <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>63</v>
+      </c>
+      <c r="H47">
+        <v>1266</v>
+      </c>
+      <c r="I47">
+        <v>158</v>
+      </c>
+      <c r="J47">
+        <v>300</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>10</v>
+      </c>
+      <c r="M47">
+        <v>32</v>
+      </c>
+      <c r="N47">
+        <v>47</v>
+      </c>
+      <c r="O47">
+        <v>101</v>
+      </c>
+      <c r="P47">
+        <v>312</v>
+      </c>
+      <c r="Q47">
+        <v>44</v>
+      </c>
+      <c r="R47">
+        <v>54</v>
+      </c>
+      <c r="S47">
+        <v>23</v>
+      </c>
+      <c r="T47">
+        <v>41</v>
+      </c>
+      <c r="U47">
+        <v>124</v>
+      </c>
+      <c r="V47">
+        <v>349</v>
+      </c>
+      <c r="W47">
+        <v>0.527</v>
+      </c>
+      <c r="X47">
+        <v>0.1</v>
+      </c>
+      <c r="Y47">
+        <v>0.681</v>
+      </c>
+      <c r="Z47">
+        <v>20.1</v>
+      </c>
+      <c r="AA47">
+        <v>5.5</v>
+      </c>
+      <c r="AB47">
         <v>5</v>
       </c>
-      <c r="G47">
-        <v>315</v>
-      </c>
-      <c r="H47">
-        <v>7396</v>
-      </c>
-      <c r="I47">
-        <v>1066</v>
-      </c>
-      <c r="J47">
-        <v>1984</v>
-      </c>
-      <c r="K47">
-        <v>102</v>
-      </c>
-      <c r="L47">
-        <v>315</v>
-      </c>
-      <c r="M47">
-        <v>328</v>
-      </c>
-      <c r="N47">
-        <v>472</v>
-      </c>
-      <c r="O47">
-        <v>656</v>
-      </c>
-      <c r="P47">
-        <v>2094</v>
-      </c>
-      <c r="Q47">
-        <v>559</v>
-      </c>
-      <c r="R47">
-        <v>380</v>
-      </c>
-      <c r="S47">
-        <v>162</v>
-      </c>
-      <c r="T47">
-        <v>305</v>
-      </c>
-      <c r="U47">
-        <v>728</v>
-      </c>
-      <c r="V47">
-        <v>2562</v>
-      </c>
-      <c r="W47">
-        <v>0.537</v>
-      </c>
-      <c r="X47">
-        <v>0.324</v>
-      </c>
-      <c r="Y47">
-        <v>0.695</v>
-      </c>
-      <c r="Z47">
-        <v>23.5</v>
-      </c>
-      <c r="AA47">
-        <v>8.1</v>
-      </c>
-      <c r="AB47">
-        <v>6.6</v>
-      </c>
       <c r="AC47">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="AD47" t="s">
         <v>157</v>
@@ -5168,76 +5144,76 @@
         <v>23</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="H48">
-        <v>3382</v>
+        <v>1499</v>
       </c>
       <c r="I48">
-        <v>443</v>
+        <v>180</v>
       </c>
       <c r="J48">
-        <v>996</v>
+        <v>418</v>
       </c>
       <c r="K48">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="L48">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="M48">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="N48">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="O48">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="P48">
-        <v>313</v>
+        <v>120</v>
       </c>
       <c r="Q48">
-        <v>453</v>
+        <v>174</v>
       </c>
       <c r="R48">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="S48">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T48">
-        <v>237</v>
+        <v>109</v>
       </c>
       <c r="U48">
-        <v>300</v>
+        <v>122</v>
       </c>
       <c r="V48">
-        <v>1167</v>
+        <v>476</v>
       </c>
       <c r="W48">
-        <v>0.445</v>
+        <v>0.431</v>
       </c>
       <c r="X48">
-        <v>0.38</v>
+        <v>0.395</v>
       </c>
       <c r="Y48">
-        <v>0.787</v>
+        <v>0.743</v>
       </c>
       <c r="Z48">
-        <v>13.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA48">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="AB48">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AC48">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AD48" t="s">
         <v>157</v>
@@ -5346,76 +5322,76 @@
         <v>20</v>
       </c>
       <c r="F50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>218</v>
+        <v>53</v>
       </c>
       <c r="H50">
-        <v>4437</v>
+        <v>1591</v>
       </c>
       <c r="I50">
-        <v>1016</v>
+        <v>397</v>
       </c>
       <c r="J50">
-        <v>1896</v>
+        <v>781</v>
       </c>
       <c r="K50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="M50">
-        <v>356</v>
+        <v>133</v>
       </c>
       <c r="N50">
-        <v>528</v>
+        <v>194</v>
       </c>
       <c r="O50">
-        <v>352</v>
+        <v>122</v>
       </c>
       <c r="P50">
-        <v>1095</v>
+        <v>373</v>
       </c>
       <c r="Q50">
-        <v>211</v>
+        <v>65</v>
       </c>
       <c r="R50">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="S50">
-        <v>187</v>
+        <v>61</v>
       </c>
       <c r="T50">
-        <v>324</v>
+        <v>124</v>
       </c>
       <c r="U50">
-        <v>472</v>
+        <v>140</v>
       </c>
       <c r="V50">
-        <v>2392</v>
+        <v>928</v>
       </c>
       <c r="W50">
-        <v>0.536</v>
+        <v>0.508</v>
       </c>
       <c r="X50">
-        <v>0.235</v>
+        <v>0.167</v>
       </c>
       <c r="Y50">
-        <v>0.674</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="Z50">
-        <v>20.4</v>
+        <v>30</v>
       </c>
       <c r="AA50">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="AB50">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC50">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AD50" t="s">
         <v>157</v>
@@ -5438,76 +5414,76 @@
         <v>20</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>348</v>
+        <v>63</v>
       </c>
       <c r="H51">
-        <v>8375</v>
+        <v>671</v>
       </c>
       <c r="I51">
-        <v>1342</v>
+        <v>90</v>
       </c>
       <c r="J51">
-        <v>3111</v>
+        <v>211</v>
       </c>
       <c r="K51">
-        <v>421</v>
+        <v>25</v>
       </c>
       <c r="L51">
-        <v>1281</v>
+        <v>79</v>
       </c>
       <c r="M51">
-        <v>678</v>
+        <v>31</v>
       </c>
       <c r="N51">
-        <v>871</v>
+        <v>49</v>
       </c>
       <c r="O51">
-        <v>283</v>
+        <v>25</v>
       </c>
       <c r="P51">
-        <v>1443</v>
+        <v>133</v>
       </c>
       <c r="Q51">
-        <v>327</v>
+        <v>13</v>
       </c>
       <c r="R51">
-        <v>315</v>
+        <v>22</v>
       </c>
       <c r="S51">
-        <v>158</v>
+        <v>7</v>
       </c>
       <c r="T51">
-        <v>360</v>
+        <v>34</v>
       </c>
       <c r="U51">
-        <v>902</v>
+        <v>100</v>
       </c>
       <c r="V51">
-        <v>3783</v>
+        <v>236</v>
       </c>
       <c r="W51">
-        <v>0.431</v>
+        <v>0.427</v>
       </c>
       <c r="X51">
-        <v>0.329</v>
+        <v>0.316</v>
       </c>
       <c r="Y51">
-        <v>0.778</v>
+        <v>0.633</v>
       </c>
       <c r="Z51">
-        <v>24.1</v>
+        <v>10.7</v>
       </c>
       <c r="AA51">
-        <v>10.9</v>
+        <v>3.7</v>
       </c>
       <c r="AB51">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="AC51">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="AD51" t="s">
         <v>157</v>
@@ -5530,70 +5506,70 @@
         <v>24</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H52">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="I52">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J52">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K52">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L52">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="M52">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N52">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P52">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="Q52">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="R52">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S52">
         <v>2</v>
       </c>
       <c r="T52">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U52">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="V52">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="W52">
-        <v>0.326</v>
+        <v>0.35</v>
       </c>
       <c r="X52">
-        <v>0.236</v>
+        <v>0.245</v>
       </c>
       <c r="Y52">
-        <v>0.72</v>
+        <v>0.727</v>
       </c>
       <c r="Z52">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="AA52">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AB52">
         <v>1.4</v>
@@ -5622,76 +5598,76 @@
         <v>21</v>
       </c>
       <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>57</v>
+      </c>
+      <c r="H53">
+        <v>698</v>
+      </c>
+      <c r="I53">
+        <v>114</v>
+      </c>
+      <c r="J53">
+        <v>278</v>
+      </c>
+      <c r="K53">
+        <v>36</v>
+      </c>
+      <c r="L53">
+        <v>111</v>
+      </c>
+      <c r="M53">
+        <v>19</v>
+      </c>
+      <c r="N53">
+        <v>24</v>
+      </c>
+      <c r="O53">
+        <v>9</v>
+      </c>
+      <c r="P53">
+        <v>85</v>
+      </c>
+      <c r="Q53">
+        <v>108</v>
+      </c>
+      <c r="R53">
+        <v>36</v>
+      </c>
+      <c r="S53">
+        <v>6</v>
+      </c>
+      <c r="T53">
+        <v>44</v>
+      </c>
+      <c r="U53">
+        <v>80</v>
+      </c>
+      <c r="V53">
+        <v>283</v>
+      </c>
+      <c r="W53">
+        <v>0.41</v>
+      </c>
+      <c r="X53">
+        <v>0.324</v>
+      </c>
+      <c r="Y53">
+        <v>0.792</v>
+      </c>
+      <c r="Z53">
+        <v>12.2</v>
+      </c>
+      <c r="AA53">
         <v>5</v>
       </c>
-      <c r="G53">
-        <v>154</v>
-      </c>
-      <c r="H53">
-        <v>2473</v>
-      </c>
-      <c r="I53">
-        <v>365</v>
-      </c>
-      <c r="J53">
-        <v>916</v>
-      </c>
-      <c r="K53">
-        <v>124</v>
-      </c>
-      <c r="L53">
-        <v>374</v>
-      </c>
-      <c r="M53">
-        <v>69</v>
-      </c>
-      <c r="N53">
-        <v>89</v>
-      </c>
-      <c r="O53">
-        <v>43</v>
-      </c>
-      <c r="P53">
-        <v>277</v>
-      </c>
-      <c r="Q53">
-        <v>384</v>
-      </c>
-      <c r="R53">
-        <v>106</v>
-      </c>
-      <c r="S53">
-        <v>29</v>
-      </c>
-      <c r="T53">
-        <v>155</v>
-      </c>
-      <c r="U53">
-        <v>240</v>
-      </c>
-      <c r="V53">
-        <v>923</v>
-      </c>
-      <c r="W53">
-        <v>0.398</v>
-      </c>
-      <c r="X53">
-        <v>0.332</v>
-      </c>
-      <c r="Y53">
-        <v>0.775</v>
-      </c>
-      <c r="Z53">
-        <v>16.1</v>
-      </c>
-      <c r="AA53">
-        <v>6</v>
-      </c>
       <c r="AB53">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AC53">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="AD53" t="s">
         <v>157</v>
@@ -5806,76 +5782,76 @@
         <v>20</v>
       </c>
       <c r="F55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>315</v>
+        <v>62</v>
       </c>
       <c r="H55">
-        <v>6437</v>
+        <v>1102</v>
       </c>
       <c r="I55">
-        <v>1295</v>
+        <v>186</v>
       </c>
       <c r="J55">
-        <v>2839</v>
+        <v>436</v>
       </c>
       <c r="K55">
-        <v>270</v>
+        <v>16</v>
       </c>
       <c r="L55">
-        <v>749</v>
+        <v>52</v>
       </c>
       <c r="M55">
-        <v>355</v>
+        <v>48</v>
       </c>
       <c r="N55">
-        <v>471</v>
+        <v>66</v>
       </c>
       <c r="O55">
-        <v>546</v>
+        <v>123</v>
       </c>
       <c r="P55">
-        <v>1872</v>
+        <v>337</v>
       </c>
       <c r="Q55">
-        <v>380</v>
+        <v>52</v>
       </c>
       <c r="R55">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="S55">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="T55">
-        <v>341</v>
+        <v>54</v>
       </c>
       <c r="U55">
-        <v>579</v>
+        <v>100</v>
       </c>
       <c r="V55">
-        <v>3215</v>
+        <v>436</v>
       </c>
       <c r="W55">
-        <v>0.456</v>
+        <v>0.427</v>
       </c>
       <c r="X55">
-        <v>0.36</v>
+        <v>0.308</v>
       </c>
       <c r="Y55">
-        <v>0.754</v>
+        <v>0.727</v>
       </c>
       <c r="Z55">
-        <v>20.4</v>
+        <v>17.8</v>
       </c>
       <c r="AA55">
-        <v>10.2</v>
+        <v>7</v>
       </c>
       <c r="AB55">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="AC55">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AD55" t="s">
         <v>157</v>
@@ -5898,76 +5874,76 @@
         <v>20</v>
       </c>
       <c r="F56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>238</v>
+        <v>72</v>
       </c>
       <c r="H56">
-        <v>7400</v>
+        <v>2047</v>
       </c>
       <c r="I56">
-        <v>1558</v>
+        <v>373</v>
       </c>
       <c r="J56">
-        <v>3594</v>
+        <v>886</v>
       </c>
       <c r="K56">
-        <v>412</v>
+        <v>81</v>
       </c>
       <c r="L56">
-        <v>1154</v>
+        <v>243</v>
       </c>
       <c r="M56">
-        <v>804</v>
+        <v>201</v>
       </c>
       <c r="N56">
-        <v>1006</v>
+        <v>240</v>
       </c>
       <c r="O56">
-        <v>396</v>
+        <v>132</v>
       </c>
       <c r="P56">
-        <v>1816</v>
+        <v>526</v>
       </c>
       <c r="Q56">
-        <v>339</v>
+        <v>94</v>
       </c>
       <c r="R56">
-        <v>174</v>
+        <v>53</v>
       </c>
       <c r="S56">
-        <v>485</v>
+        <v>134</v>
       </c>
       <c r="T56">
-        <v>418</v>
+        <v>121</v>
       </c>
       <c r="U56">
-        <v>752</v>
+        <v>205</v>
       </c>
       <c r="V56">
-        <v>4332</v>
+        <v>1028</v>
       </c>
       <c r="W56">
-        <v>0.434</v>
+        <v>0.421</v>
       </c>
       <c r="X56">
-        <v>0.357</v>
+        <v>0.333</v>
       </c>
       <c r="Y56">
-        <v>0.799</v>
+        <v>0.838</v>
       </c>
       <c r="Z56">
-        <v>31.1</v>
+        <v>28.4</v>
       </c>
       <c r="AA56">
-        <v>18.2</v>
+        <v>14.3</v>
       </c>
       <c r="AB56">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AC56">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AD56" t="s">
         <v>157</v>
@@ -5990,76 +5966,76 @@
         <v>22</v>
       </c>
       <c r="F57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>299</v>
+        <v>49</v>
       </c>
       <c r="H57">
-        <v>5550</v>
+        <v>725</v>
       </c>
       <c r="I57">
-        <v>926</v>
+        <v>97</v>
       </c>
       <c r="J57">
-        <v>2025</v>
+        <v>229</v>
       </c>
       <c r="K57">
-        <v>307</v>
+        <v>36</v>
       </c>
       <c r="L57">
-        <v>854</v>
+        <v>89</v>
       </c>
       <c r="M57">
-        <v>372</v>
+        <v>43</v>
       </c>
       <c r="N57">
-        <v>456</v>
+        <v>53</v>
       </c>
       <c r="O57">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="P57">
-        <v>699</v>
+        <v>111</v>
       </c>
       <c r="Q57">
-        <v>387</v>
+        <v>47</v>
       </c>
       <c r="R57">
-        <v>212</v>
+        <v>29</v>
       </c>
       <c r="S57">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="T57">
-        <v>297</v>
+        <v>32</v>
       </c>
       <c r="U57">
-        <v>486</v>
+        <v>59</v>
       </c>
       <c r="V57">
-        <v>2531</v>
+        <v>273</v>
       </c>
       <c r="W57">
-        <v>0.457</v>
+        <v>0.424</v>
       </c>
       <c r="X57">
-        <v>0.359</v>
+        <v>0.404</v>
       </c>
       <c r="Y57">
-        <v>0.8159999999999999</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="Z57">
-        <v>18.6</v>
+        <v>14.8</v>
       </c>
       <c r="AA57">
-        <v>8.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB57">
         <v>2.3</v>
       </c>
       <c r="AC57">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AD57" t="s">
         <v>157</v>
@@ -6082,73 +6058,70 @@
         <v>25</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="H58">
-        <v>1885</v>
+        <v>426</v>
       </c>
       <c r="I58">
-        <v>319</v>
+        <v>76</v>
       </c>
       <c r="J58">
-        <v>539</v>
+        <v>133</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>30</v>
+      </c>
+      <c r="N58">
+        <v>55</v>
+      </c>
+      <c r="O58">
+        <v>49</v>
+      </c>
+      <c r="P58">
+        <v>122</v>
+      </c>
+      <c r="Q58">
+        <v>10</v>
+      </c>
+      <c r="R58">
         <v>6</v>
       </c>
-      <c r="M58">
-        <v>111</v>
-      </c>
-      <c r="N58">
-        <v>198</v>
-      </c>
-      <c r="O58">
-        <v>213</v>
-      </c>
-      <c r="P58">
-        <v>575</v>
-      </c>
-      <c r="Q58">
-        <v>46</v>
-      </c>
-      <c r="R58">
-        <v>33</v>
-      </c>
       <c r="S58">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="T58">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="U58">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="V58">
-        <v>751</v>
+        <v>182</v>
       </c>
       <c r="W58">
-        <v>0.592</v>
-      </c>
-      <c r="X58">
-        <v>0.333</v>
+        <v>0.571</v>
       </c>
       <c r="Y58">
-        <v>0.5610000000000001</v>
+        <v>0.545</v>
       </c>
       <c r="Z58">
-        <v>12.4</v>
+        <v>10.9</v>
       </c>
       <c r="AA58">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="AB58">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="AC58">
         <v>0.3</v>
@@ -6174,76 +6147,76 @@
         <v>22</v>
       </c>
       <c r="F59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>307</v>
+        <v>52</v>
       </c>
       <c r="H59">
-        <v>9423</v>
+        <v>1107</v>
       </c>
       <c r="I59">
-        <v>1393</v>
+        <v>123</v>
       </c>
       <c r="J59">
-        <v>3270</v>
+        <v>272</v>
       </c>
       <c r="K59">
-        <v>489</v>
+        <v>53</v>
       </c>
       <c r="L59">
-        <v>1352</v>
+        <v>115</v>
       </c>
       <c r="M59">
-        <v>522</v>
+        <v>42</v>
       </c>
       <c r="N59">
-        <v>641</v>
+        <v>63</v>
       </c>
       <c r="O59">
-        <v>216</v>
+        <v>21</v>
       </c>
       <c r="P59">
-        <v>985</v>
+        <v>107</v>
       </c>
       <c r="Q59">
-        <v>890</v>
+        <v>73</v>
       </c>
       <c r="R59">
+        <v>36</v>
+      </c>
+      <c r="S59">
+        <v>25</v>
+      </c>
+      <c r="T59">
+        <v>35</v>
+      </c>
+      <c r="U59">
+        <v>107</v>
+      </c>
+      <c r="V59">
         <v>341</v>
       </c>
-      <c r="S59">
-        <v>207</v>
-      </c>
-      <c r="T59">
-        <v>444</v>
-      </c>
-      <c r="U59">
-        <v>758</v>
-      </c>
-      <c r="V59">
-        <v>3797</v>
-      </c>
       <c r="W59">
-        <v>0.426</v>
+        <v>0.452</v>
       </c>
       <c r="X59">
-        <v>0.362</v>
+        <v>0.461</v>
       </c>
       <c r="Y59">
-        <v>0.8139999999999999</v>
+        <v>0.667</v>
       </c>
       <c r="Z59">
-        <v>30.7</v>
+        <v>21.3</v>
       </c>
       <c r="AA59">
-        <v>12.4</v>
+        <v>6.6</v>
       </c>
       <c r="AB59">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="AC59">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="AD59" t="s">
         <v>157</v>
@@ -6266,76 +6239,76 @@
         <v>21</v>
       </c>
       <c r="F60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>335</v>
+        <v>39</v>
       </c>
       <c r="H60">
-        <v>7597</v>
+        <v>311</v>
       </c>
       <c r="I60">
-        <v>1152</v>
+        <v>29</v>
       </c>
       <c r="J60">
-        <v>2924</v>
+        <v>106</v>
       </c>
       <c r="K60">
-        <v>507</v>
+        <v>6</v>
       </c>
       <c r="L60">
-        <v>1368</v>
+        <v>27</v>
       </c>
       <c r="M60">
-        <v>413</v>
+        <v>8</v>
       </c>
       <c r="N60">
-        <v>508</v>
+        <v>10</v>
       </c>
       <c r="O60">
-        <v>209</v>
+        <v>24</v>
       </c>
       <c r="P60">
-        <v>1249</v>
+        <v>63</v>
       </c>
       <c r="Q60">
-        <v>890</v>
+        <v>37</v>
       </c>
       <c r="R60">
-        <v>261</v>
+        <v>6</v>
       </c>
       <c r="S60">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="T60">
-        <v>355</v>
+        <v>19</v>
       </c>
       <c r="U60">
-        <v>442</v>
+        <v>23</v>
       </c>
       <c r="V60">
-        <v>3224</v>
+        <v>72</v>
       </c>
       <c r="W60">
-        <v>0.394</v>
+        <v>0.274</v>
       </c>
       <c r="X60">
-        <v>0.371</v>
+        <v>0.222</v>
       </c>
       <c r="Y60">
-        <v>0.8129999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z60">
-        <v>22.7</v>
+        <v>8</v>
       </c>
       <c r="AA60">
-        <v>9.6</v>
+        <v>1.8</v>
       </c>
       <c r="AB60">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="AC60">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="AD60" t="s">
         <v>157</v>
@@ -6358,76 +6331,76 @@
         <v>19</v>
       </c>
       <c r="F61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="H61">
-        <v>9204</v>
+        <v>2259</v>
       </c>
       <c r="I61">
-        <v>2040</v>
+        <v>392</v>
       </c>
       <c r="J61">
-        <v>4858</v>
+        <v>956</v>
       </c>
       <c r="K61">
-        <v>747</v>
+        <v>130</v>
       </c>
       <c r="L61">
-        <v>2098</v>
+        <v>370</v>
       </c>
       <c r="M61">
-        <v>705</v>
+        <v>140</v>
       </c>
       <c r="N61">
-        <v>913</v>
+        <v>190</v>
       </c>
       <c r="O61">
-        <v>178</v>
+        <v>47</v>
       </c>
       <c r="P61">
-        <v>1176</v>
+        <v>274</v>
       </c>
       <c r="Q61">
-        <v>1666</v>
+        <v>266</v>
       </c>
       <c r="R61">
-        <v>364</v>
+        <v>93</v>
       </c>
       <c r="S61">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="T61">
-        <v>919</v>
+        <v>196</v>
       </c>
       <c r="U61">
-        <v>592</v>
+        <v>142</v>
       </c>
       <c r="V61">
-        <v>5532</v>
+        <v>1054</v>
       </c>
       <c r="W61">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="X61">
-        <v>0.356</v>
+        <v>0.351</v>
       </c>
       <c r="Y61">
-        <v>0.772</v>
+        <v>0.737</v>
       </c>
       <c r="Z61">
-        <v>29</v>
+        <v>28.2</v>
       </c>
       <c r="AA61">
-        <v>17.5</v>
+        <v>13.2</v>
       </c>
       <c r="AB61">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="AC61">
-        <v>5.3</v>
+        <v>3.3</v>
       </c>
       <c r="AD61" t="s">
         <v>157</v>
@@ -6450,76 +6423,76 @@
         <v>26</v>
       </c>
       <c r="F62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>258</v>
+        <v>55</v>
       </c>
       <c r="H62">
-        <v>5298</v>
+        <v>813</v>
       </c>
       <c r="I62">
-        <v>786</v>
+        <v>122</v>
       </c>
       <c r="J62">
-        <v>1774</v>
+        <v>242</v>
       </c>
       <c r="K62">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="L62">
-        <v>457</v>
+        <v>47</v>
       </c>
       <c r="M62">
-        <v>425</v>
+        <v>69</v>
       </c>
       <c r="N62">
-        <v>562</v>
+        <v>92</v>
       </c>
       <c r="O62">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="P62">
-        <v>621</v>
+        <v>96</v>
       </c>
       <c r="Q62">
-        <v>483</v>
+        <v>58</v>
       </c>
       <c r="R62">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="S62">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="T62">
-        <v>343</v>
+        <v>53</v>
       </c>
       <c r="U62">
-        <v>513</v>
+        <v>103</v>
       </c>
       <c r="V62">
-        <v>2142</v>
+        <v>331</v>
       </c>
       <c r="W62">
-        <v>0.443</v>
+        <v>0.504</v>
       </c>
       <c r="X62">
-        <v>0.317</v>
+        <v>0.383</v>
       </c>
       <c r="Y62">
-        <v>0.756</v>
+        <v>0.75</v>
       </c>
       <c r="Z62">
-        <v>20.5</v>
+        <v>14.8</v>
       </c>
       <c r="AA62">
-        <v>8.300000000000001</v>
+        <v>6</v>
       </c>
       <c r="AB62">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="AC62">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="AD62" t="s">
         <v>157</v>
@@ -6631,19 +6604,19 @@
         <v>23</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H64">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I64">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J64">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -6655,46 +6628,46 @@
         <v>3</v>
       </c>
       <c r="N64">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O64">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P64">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R64">
         <v>1</v>
       </c>
       <c r="S64">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T64">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U64">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="V64">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="W64">
-        <v>0.625</v>
+        <v>0.579</v>
       </c>
       <c r="Y64">
-        <v>0.273</v>
+        <v>0.375</v>
       </c>
       <c r="Z64">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="AA64">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="AB64">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="AC64">
         <v>0.3</v>
@@ -6720,25 +6693,25 @@
         <v>23</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65">
+        <v>21</v>
+      </c>
+      <c r="H65">
+        <v>305</v>
+      </c>
+      <c r="I65">
         <v>25</v>
       </c>
-      <c r="H65">
-        <v>352</v>
-      </c>
-      <c r="I65">
-        <v>30</v>
-      </c>
       <c r="J65">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K65">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L65">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M65">
         <v>13</v>
@@ -6750,46 +6723,46 @@
         <v>8</v>
       </c>
       <c r="P65">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q65">
         <v>15</v>
       </c>
       <c r="R65">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S65">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T65">
         <v>6</v>
       </c>
       <c r="U65">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="V65">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="W65">
-        <v>0.38</v>
+        <v>0.357</v>
       </c>
       <c r="X65">
-        <v>0.318</v>
+        <v>0.325</v>
       </c>
       <c r="Y65">
         <v>0.765</v>
       </c>
       <c r="Z65">
-        <v>14.1</v>
+        <v>14.5</v>
       </c>
       <c r="AA65">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AB65">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AC65">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AD65" t="s">
         <v>157</v>
@@ -6812,76 +6785,76 @@
         <v>20</v>
       </c>
       <c r="F66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>358</v>
+        <v>82</v>
       </c>
       <c r="H66">
-        <v>12307</v>
+        <v>2627</v>
       </c>
       <c r="I66">
-        <v>3063</v>
+        <v>625</v>
       </c>
       <c r="J66">
-        <v>5741</v>
+        <v>1153</v>
       </c>
       <c r="K66">
-        <v>507</v>
+        <v>30</v>
       </c>
       <c r="L66">
-        <v>1280</v>
+        <v>88</v>
       </c>
       <c r="M66">
-        <v>1480</v>
+        <v>223</v>
       </c>
       <c r="N66">
-        <v>1781</v>
+        <v>275</v>
       </c>
       <c r="O66">
-        <v>1121</v>
+        <v>229</v>
       </c>
       <c r="P66">
-        <v>4209</v>
+        <v>858</v>
       </c>
       <c r="Q66">
-        <v>992</v>
+        <v>161</v>
       </c>
       <c r="R66">
-        <v>278</v>
+        <v>58</v>
       </c>
       <c r="S66">
-        <v>523</v>
+        <v>138</v>
       </c>
       <c r="T66">
-        <v>904</v>
+        <v>183</v>
       </c>
       <c r="U66">
-        <v>1180</v>
+        <v>245</v>
       </c>
       <c r="V66">
-        <v>8113</v>
+        <v>1503</v>
       </c>
       <c r="W66">
-        <v>0.534</v>
+        <v>0.542</v>
       </c>
       <c r="X66">
-        <v>0.396</v>
+        <v>0.341</v>
       </c>
       <c r="Y66">
-        <v>0.831</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="Z66">
-        <v>34.4</v>
+        <v>32</v>
       </c>
       <c r="AA66">
-        <v>22.7</v>
+        <v>18.3</v>
       </c>
       <c r="AB66">
-        <v>11.8</v>
+        <v>10.5</v>
       </c>
       <c r="AC66">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="AD66" t="s">
         <v>157</v>
@@ -6904,76 +6877,76 @@
         <v>19</v>
       </c>
       <c r="F67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>335</v>
+        <v>60</v>
       </c>
       <c r="H67">
-        <v>9491</v>
+        <v>1367</v>
       </c>
       <c r="I67">
-        <v>1627</v>
+        <v>264</v>
       </c>
       <c r="J67">
-        <v>3335</v>
+        <v>530</v>
       </c>
       <c r="K67">
-        <v>252</v>
+        <v>3</v>
       </c>
       <c r="L67">
-        <v>711</v>
+        <v>14</v>
       </c>
       <c r="M67">
-        <v>749</v>
+        <v>88</v>
       </c>
       <c r="N67">
-        <v>975</v>
+        <v>121</v>
       </c>
       <c r="O67">
-        <v>471</v>
+        <v>68</v>
       </c>
       <c r="P67">
-        <v>2229</v>
+        <v>332</v>
       </c>
       <c r="Q67">
-        <v>410</v>
+        <v>41</v>
       </c>
       <c r="R67">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="S67">
-        <v>695</v>
+        <v>86</v>
       </c>
       <c r="T67">
-        <v>436</v>
+        <v>67</v>
       </c>
       <c r="U67">
-        <v>939</v>
+        <v>158</v>
       </c>
       <c r="V67">
-        <v>4255</v>
+        <v>619</v>
       </c>
       <c r="W67">
-        <v>0.488</v>
+        <v>0.498</v>
       </c>
       <c r="X67">
-        <v>0.354</v>
+        <v>0.214</v>
       </c>
       <c r="Y67">
-        <v>0.768</v>
+        <v>0.727</v>
       </c>
       <c r="Z67">
-        <v>28.3</v>
+        <v>22.8</v>
       </c>
       <c r="AA67">
-        <v>12.7</v>
+        <v>10.3</v>
       </c>
       <c r="AB67">
-        <v>6.7</v>
+        <v>5.5</v>
       </c>
       <c r="AC67">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="AD67" t="s">
         <v>157</v>
@@ -6996,76 +6969,76 @@
         <v>19</v>
       </c>
       <c r="F68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G68">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="H68">
-        <v>1671</v>
+        <v>1001</v>
       </c>
       <c r="I68">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="J68">
-        <v>478</v>
+        <v>266</v>
       </c>
       <c r="K68">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="L68">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="M68">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N68">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="O68">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P68">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="Q68">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="R68">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="S68">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="T68">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="U68">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="V68">
-        <v>423</v>
+        <v>217</v>
       </c>
       <c r="W68">
-        <v>0.337</v>
+        <v>0.305</v>
       </c>
       <c r="X68">
-        <v>0.313</v>
+        <v>0.293</v>
       </c>
       <c r="Y68">
-        <v>0.6919999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z68">
-        <v>12</v>
+        <v>14.3</v>
       </c>
       <c r="AA68">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AB68">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AC68">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD68" t="s">
         <v>157</v>
@@ -7088,76 +7061,76 @@
         <v>23</v>
       </c>
       <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>7</v>
+      </c>
+      <c r="H69">
+        <v>169</v>
+      </c>
+      <c r="I69">
+        <v>14</v>
+      </c>
+      <c r="J69">
+        <v>39</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>5</v>
+      </c>
+      <c r="M69">
         <v>3</v>
       </c>
-      <c r="G69">
-        <v>45</v>
-      </c>
-      <c r="H69">
-        <v>611</v>
-      </c>
-      <c r="I69">
-        <v>58</v>
-      </c>
-      <c r="J69">
-        <v>142</v>
-      </c>
-      <c r="K69">
-        <v>5</v>
-      </c>
-      <c r="L69">
-        <v>26</v>
-      </c>
-      <c r="M69">
-        <v>22</v>
-      </c>
       <c r="N69">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="O69">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="P69">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="Q69">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="R69">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="S69">
+        <v>3</v>
+      </c>
+      <c r="T69">
         <v>9</v>
       </c>
-      <c r="T69">
-        <v>32</v>
-      </c>
       <c r="U69">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="V69">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="W69">
-        <v>0.408</v>
+        <v>0.359</v>
       </c>
       <c r="X69">
-        <v>0.192</v>
+        <v>0</v>
       </c>
       <c r="Y69">
-        <v>0.733</v>
+        <v>0.75</v>
       </c>
       <c r="Z69">
-        <v>13.6</v>
+        <v>24.1</v>
       </c>
       <c r="AA69">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="AB69">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="AC69">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="AD69" t="s">
         <v>157</v>
@@ -7180,76 +7153,73 @@
         <v>23</v>
       </c>
       <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>10</v>
+      </c>
+      <c r="H70">
+        <v>68</v>
+      </c>
+      <c r="I70">
+        <v>10</v>
+      </c>
+      <c r="J70">
+        <v>24</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>9</v>
+      </c>
+      <c r="N70">
+        <v>14</v>
+      </c>
+      <c r="O70">
+        <v>14</v>
+      </c>
+      <c r="P70">
+        <v>38</v>
+      </c>
+      <c r="Q70">
+        <v>5</v>
+      </c>
+      <c r="R70">
         <v>4</v>
       </c>
-      <c r="G70">
-        <v>67</v>
-      </c>
-      <c r="H70">
-        <v>872</v>
-      </c>
-      <c r="I70">
-        <v>163</v>
-      </c>
-      <c r="J70">
-        <v>322</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>2</v>
-      </c>
-      <c r="M70">
-        <v>87</v>
-      </c>
-      <c r="N70">
-        <v>139</v>
-      </c>
-      <c r="O70">
-        <v>115</v>
-      </c>
-      <c r="P70">
-        <v>371</v>
-      </c>
-      <c r="Q70">
-        <v>39</v>
-      </c>
-      <c r="R70">
-        <v>37</v>
-      </c>
       <c r="S70">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="T70">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="U70">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="V70">
-        <v>413</v>
+        <v>29</v>
       </c>
       <c r="W70">
-        <v>0.506</v>
-      </c>
-      <c r="X70">
-        <v>0</v>
+        <v>0.417</v>
       </c>
       <c r="Y70">
-        <v>0.626</v>
+        <v>0.643</v>
       </c>
       <c r="Z70">
-        <v>13</v>
+        <v>6.8</v>
       </c>
       <c r="AA70">
-        <v>6.2</v>
+        <v>2.9</v>
       </c>
       <c r="AB70">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="AC70">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AD70" t="s">
         <v>157</v>
@@ -7272,76 +7242,76 @@
         <v>19</v>
       </c>
       <c r="F71">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="H71">
-        <v>6848</v>
+        <v>2232</v>
       </c>
       <c r="I71">
-        <v>856</v>
+        <v>195</v>
       </c>
       <c r="J71">
-        <v>2053</v>
+        <v>462</v>
       </c>
       <c r="K71">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="L71">
-        <v>563</v>
+        <v>116</v>
       </c>
       <c r="M71">
-        <v>279</v>
+        <v>80</v>
       </c>
       <c r="N71">
-        <v>432</v>
+        <v>117</v>
       </c>
       <c r="O71">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="P71">
-        <v>1295</v>
+        <v>403</v>
       </c>
       <c r="Q71">
-        <v>657</v>
+        <v>117</v>
       </c>
       <c r="R71">
-        <v>227</v>
+        <v>68</v>
       </c>
       <c r="S71">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="T71">
-        <v>371</v>
+        <v>95</v>
       </c>
       <c r="U71">
-        <v>591</v>
+        <v>184</v>
       </c>
       <c r="V71">
-        <v>2181</v>
+        <v>502</v>
       </c>
       <c r="W71">
-        <v>0.417</v>
+        <v>0.422</v>
       </c>
       <c r="X71">
-        <v>0.337</v>
+        <v>0.276</v>
       </c>
       <c r="Y71">
-        <v>0.646</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="Z71">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="AA71">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="AB71">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AC71">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="AD71" t="s">
         <v>157</v>
@@ -7364,76 +7334,76 @@
         <v>20</v>
       </c>
       <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>17</v>
+      </c>
+      <c r="H72">
+        <v>145</v>
+      </c>
+      <c r="I72">
+        <v>22</v>
+      </c>
+      <c r="J72">
+        <v>53</v>
+      </c>
+      <c r="K72">
         <v>4</v>
       </c>
-      <c r="G72">
-        <v>113</v>
-      </c>
-      <c r="H72">
-        <v>1828</v>
-      </c>
-      <c r="I72">
-        <v>383</v>
-      </c>
-      <c r="J72">
-        <v>701</v>
-      </c>
-      <c r="K72">
-        <v>67</v>
-      </c>
       <c r="L72">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="M72">
-        <v>245</v>
+        <v>13</v>
       </c>
       <c r="N72">
-        <v>334</v>
+        <v>21</v>
       </c>
       <c r="O72">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="P72">
-        <v>540</v>
+        <v>38</v>
       </c>
       <c r="Q72">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="R72">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="S72">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="T72">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="U72">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="V72">
-        <v>1078</v>
+        <v>61</v>
       </c>
       <c r="W72">
-        <v>0.546</v>
+        <v>0.415</v>
       </c>
       <c r="X72">
-        <v>0.368</v>
+        <v>0.364</v>
       </c>
       <c r="Y72">
-        <v>0.734</v>
+        <v>0.619</v>
       </c>
       <c r="Z72">
-        <v>16.2</v>
+        <v>8.5</v>
       </c>
       <c r="AA72">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="AB72">
-        <v>4.8</v>
+        <v>2.2</v>
       </c>
       <c r="AC72">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AD72" t="s">
         <v>157</v>
@@ -7456,76 +7426,76 @@
         <v>23</v>
       </c>
       <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>27</v>
+      </c>
+      <c r="H73">
+        <v>229</v>
+      </c>
+      <c r="I73">
+        <v>36</v>
+      </c>
+      <c r="J73">
+        <v>80</v>
+      </c>
+      <c r="K73">
         <v>5</v>
       </c>
-      <c r="G73">
-        <v>264</v>
-      </c>
-      <c r="H73">
-        <v>5234</v>
-      </c>
-      <c r="I73">
-        <v>709</v>
-      </c>
-      <c r="J73">
-        <v>1571</v>
-      </c>
-      <c r="K73">
-        <v>167</v>
-      </c>
       <c r="L73">
-        <v>483</v>
+        <v>13</v>
       </c>
       <c r="M73">
-        <v>355</v>
+        <v>26</v>
       </c>
       <c r="N73">
-        <v>447</v>
+        <v>35</v>
       </c>
       <c r="O73">
-        <v>204</v>
+        <v>8</v>
       </c>
       <c r="P73">
-        <v>810</v>
+        <v>37</v>
       </c>
       <c r="Q73">
-        <v>757</v>
+        <v>31</v>
       </c>
       <c r="R73">
-        <v>271</v>
+        <v>8</v>
       </c>
       <c r="S73">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="T73">
-        <v>265</v>
+        <v>16</v>
       </c>
       <c r="U73">
-        <v>307</v>
+        <v>7</v>
       </c>
       <c r="V73">
-        <v>1940</v>
+        <v>103</v>
       </c>
       <c r="W73">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="X73">
-        <v>0.346</v>
+        <v>0.385</v>
       </c>
       <c r="Y73">
-        <v>0.794</v>
+        <v>0.743</v>
       </c>
       <c r="Z73">
-        <v>19.8</v>
+        <v>8.5</v>
       </c>
       <c r="AA73">
-        <v>7.3</v>
+        <v>3.8</v>
       </c>
       <c r="AB73">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="AC73">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="AD73" t="s">
         <v>157</v>
@@ -7548,76 +7518,76 @@
         <v>23</v>
       </c>
       <c r="F74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="H74">
-        <v>1077</v>
+        <v>384</v>
       </c>
       <c r="I74">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="J74">
-        <v>427</v>
+        <v>169</v>
       </c>
       <c r="K74">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L74">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="M74">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="N74">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O74">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="P74">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="Q74">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="R74">
+        <v>15</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
         <v>33</v>
       </c>
-      <c r="S74">
-        <v>1</v>
-      </c>
-      <c r="T74">
-        <v>64</v>
-      </c>
       <c r="U74">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="V74">
-        <v>429</v>
+        <v>154</v>
       </c>
       <c r="W74">
-        <v>0.393</v>
+        <v>0.367</v>
       </c>
       <c r="X74">
-        <v>0.296</v>
+        <v>0.217</v>
       </c>
       <c r="Y74">
-        <v>0.768</v>
+        <v>0.8</v>
       </c>
       <c r="Z74">
-        <v>8.5</v>
+        <v>9.4</v>
       </c>
       <c r="AA74">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AB74">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AC74">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="AD74" t="s">
         <v>157</v>
